--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="195">
   <si>
     <t>Property</t>
   </si>
@@ -51,70 +51,70 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-02-05T13:40:24+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Interop'Santé</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Interop'Santé (http://interopsante.org/)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>code for the medicinal product substance</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/CodeableConcept</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2025-02-05T13:32:30+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Interop'Santé</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>code for the medicinal product substance</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>complex-type</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CodeableConcept</t>
-  </si>
-  <si>
-    <t>Abstract</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -811,100 +811,98 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1092,14 +1090,14 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
@@ -1109,13 +1107,13 @@
         <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>77</v>
@@ -1131,53 +1129,53 @@
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>75</v>
@@ -1210,7 +1208,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1220,13 +1218,13 @@
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>89</v>
@@ -1240,50 +1238,50 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>92</v>
@@ -1295,19 +1293,19 @@
         <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1329,13 +1327,13 @@
         <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>96</v>
@@ -1351,38 +1349,38 @@
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>100</v>
@@ -1391,7 +1389,7 @@
         <v>101</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>102</v>
@@ -1406,19 +1404,19 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1430,7 +1428,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1440,10 +1438,10 @@
         <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>106</v>
@@ -1464,38 +1462,38 @@
         <v>111</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
         <v>112</v>
@@ -1504,7 +1502,7 @@
         <v>113</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>102</v>
@@ -1519,7 +1517,7 @@
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>83</v>
@@ -1545,7 +1543,7 @@
         <v>118</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1555,10 +1553,10 @@
         <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -1579,26 +1577,26 @@
         <v>111</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>119</v>
@@ -1610,19 +1608,19 @@
         <v>121</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>105</v>
@@ -1634,7 +1632,7 @@
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>83</v>
@@ -1658,7 +1656,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1668,13 +1666,13 @@
         <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>89</v>
@@ -1688,50 +1686,50 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>92</v>
@@ -1743,19 +1741,19 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1777,13 +1775,13 @@
         <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>96</v>
@@ -1799,38 +1797,38 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
         <v>100</v>
@@ -1839,7 +1837,7 @@
         <v>101</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>102</v>
@@ -1854,19 +1852,19 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1878,7 +1876,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1888,10 +1886,10 @@
         <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>106</v>
@@ -1912,50 +1910,50 @@
         <v>132</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
         <v>133</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -1967,7 +1965,7 @@
         <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>83</v>
@@ -1991,7 +1989,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2001,10 +1999,10 @@
         <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>106</v>
@@ -2023,50 +2021,50 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>143</v>
@@ -2078,7 +2076,7 @@
         <v>88</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>83</v>
@@ -2102,7 +2100,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2112,10 +2110,10 @@
         <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>106</v>
@@ -2134,50 +2132,50 @@
         <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>153</v>
@@ -2189,7 +2187,7 @@
         <v>88</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>83</v>
@@ -2213,7 +2211,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2223,10 +2221,10 @@
         <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>106</v>
@@ -2245,50 +2243,50 @@
         <v>161</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>162</v>
@@ -2300,7 +2298,7 @@
         <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>83</v>
@@ -2324,7 +2322,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2334,10 +2332,10 @@
         <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>106</v>
@@ -2358,50 +2356,50 @@
         <v>172</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>173</v>
@@ -2413,7 +2411,7 @@
         <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>83</v>
@@ -2439,7 +2437,7 @@
         <v>178</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2449,10 +2447,10 @@
         <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>106</v>
@@ -2473,50 +2471,50 @@
         <v>111</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>105</v>
@@ -2528,7 +2526,7 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>83</v>
@@ -2552,7 +2550,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2562,13 +2560,13 @@
         <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>89</v>
@@ -2582,50 +2580,50 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>92</v>
@@ -2637,19 +2635,19 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -2671,13 +2669,13 @@
         <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>96</v>
@@ -2693,38 +2691,38 @@
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>100</v>
@@ -2733,7 +2731,7 @@
         <v>101</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>102</v>
@@ -2748,19 +2746,19 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -2772,7 +2770,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2782,10 +2780,10 @@
         <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>106</v>
@@ -2806,50 +2804,50 @@
         <v>132</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>182</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>134</v>
@@ -2861,7 +2859,7 @@
         <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>83</v>
@@ -2885,7 +2883,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -2895,10 +2893,10 @@
         <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>106</v>
@@ -2917,50 +2915,50 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>143</v>
@@ -2972,7 +2970,7 @@
         <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>83</v>
@@ -2996,7 +2994,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3006,10 +3004,10 @@
         <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>106</v>
@@ -3028,50 +3026,50 @@
         <v>152</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>153</v>
@@ -3083,7 +3081,7 @@
         <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>83</v>
@@ -3107,7 +3105,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3117,10 +3115,10 @@
         <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>106</v>
@@ -3139,50 +3137,50 @@
         <v>161</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>162</v>
@@ -3194,7 +3192,7 @@
         <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>83</v>
@@ -3218,7 +3216,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3228,10 +3226,10 @@
         <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>106</v>
@@ -3252,50 +3250,50 @@
         <v>172</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>173</v>
@@ -3307,7 +3305,7 @@
         <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>83</v>
@@ -3331,7 +3329,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3341,10 +3339,10 @@
         <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>106</v>
@@ -3365,50 +3363,50 @@
         <v>191</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>187</v>
@@ -3420,7 +3418,7 @@
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>83</v>

--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:40:24+00:00</t>
+    <t>2025-02-05T13:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:46:54+00:00</t>
+    <t>2025-02-05T14:43:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:43:21+00:00</t>
+    <t>2025-02-05T14:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:51:15+00:00</t>
+    <t>2025-02-05T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-mp-substance-2-active.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:57:31+00:00</t>
+    <t>2025-02-06T08:56:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
